--- a/xlsx/领海_intext.xlsx
+++ b/xlsx/领海_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="232">
   <si>
     <t>领海</t>
   </si>
@@ -29,7 +29,7 @@
     <t>领海基线</t>
   </si>
   <si>
-    <t>政策_政策_美國_领海</t>
+    <t>政策_政策_美国_领海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%86%E5%9C%B0</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E6%B0%B4</t>
   </si>
   <si>
-    <t>內水</t>
+    <t>内水</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A4%E5%B2%9B</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E8%80%81%E7%A7%80%E6%96%AF</t>
@@ -89,49 +89,46 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%A0%AA%E5%9C%B0%E9%82%A3%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>斯堪地那維亞</t>
+    <t>斯堪地那维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%B4%8B%E6%B3%95%E5%85%AC%E7%B4%84</t>
   </si>
   <si>
-    <t>海洋法公約</t>
+    <t>海洋法公约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E5%AE%B3%E9%80%9A%E9%81%8E</t>
   </si>
   <si>
-    <t>無害通過</t>
+    <t>无害通过</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%B5%B7%E6%B4%8B%E6%B3%95%E5%85%AC%E7%B4%84</t>
   </si>
   <si>
-    <t>聯合國海洋法公約</t>
+    <t>联合国海洋法公约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A0%98%E6%B5%B7%E5%9F%BA%E7%B7%9A</t>
   </si>
   <si>
-    <t>領海基線</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E7%81%A3</t>
   </si>
   <si>
-    <t>海灣</t>
+    <t>海湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%97%E9%80%A3%E5%8D%80</t>
   </si>
   <si>
-    <t>毗連區</t>
+    <t>毗连区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E6%B5%B7%E5%9F%9F</t>
   </si>
   <si>
-    <t>經濟海域</t>
+    <t>经济海域</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B5%B7</t>
@@ -143,19 +140,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E4%B8%AD%E5%9C%8B%E6%B5%B7</t>
   </si>
   <si>
-    <t>南中國海</t>
+    <t>南中国海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>利比亞</t>
+    <t>利比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%81%94%E7%81%A3</t>
   </si>
   <si>
-    <t>西達灣</t>
+    <t>西达湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%89%8E%E8%8F%B2</t>
@@ -179,13 +176,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%B4%84</t>
   </si>
   <si>
-    <t>北約</t>
+    <t>北约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98</t>
   </si>
   <si>
-    <t>希臘</t>
+    <t>希腊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6</t>
@@ -197,19 +194,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E6%B2%99%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>愛沙尼亞</t>
+    <t>爱沙尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
+    <t>俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E8%98%AD</t>
   </si>
   <si>
-    <t>芬蘭</t>
+    <t>芬兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
@@ -221,31 +218,31 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%9C%8B</t>
   </si>
   <si>
-    <t>俄國</t>
+    <t>俄国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E8%B0%B7%E6%B5%B7%E5%B3%BD</t>
   </si>
   <si>
-    <t>宗谷海峽</t>
+    <t>宗谷海峡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%BE%85%E7%9A%84%E6%B5%B7</t>
   </si>
   <si>
-    <t>波羅的海</t>
+    <t>波罗的海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9B%E5%9C%B0</t>
   </si>
   <si>
-    <t>飛地</t>
+    <t>飞地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E9%87%8C%E5%AF%A7%E6%A0%BC%E5%8B%92</t>
   </si>
   <si>
-    <t>加里寧格勒</t>
+    <t>加里宁格勒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B</t>
@@ -257,7 +254,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD</t>
   </si>
   <si>
-    <t>波蘭</t>
+    <t>波兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BA%A6%E7%BB%84%E7%BB%87</t>
@@ -269,7 +266,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>歐洲聯盟</t>
+    <t>欧洲联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%A0%E6%B1%9F%E4%B8%89%E8%A7%92%E6%B4%B2</t>
@@ -281,7 +278,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E6%9D%B1</t>
   </si>
   <si>
-    <t>廣東</t>
+    <t>广东</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF</t>
@@ -293,7 +290,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80</t>
   </si>
   <si>
-    <t>澳門</t>
+    <t>澳门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%B5%B7%E8%88%B0%E9%98%9F</t>
@@ -311,19 +308,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E5%8D%8A%E5%B3%B6</t>
   </si>
   <si>
-    <t>朝鮮半島</t>
+    <t>朝鲜半岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E5%8D%81%E5%85%AB%E5%BA%A6%E7%B7%9A</t>
   </si>
   <si>
-    <t>三十八度線</t>
+    <t>三十八度线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%83%E6%B5%B7</t>
   </si>
   <si>
-    <t>黃海</t>
+    <t>黄海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%96%B9%E5%88%86%E7%95%8C%E7%BA%BF</t>
@@ -335,7 +332,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E7%88%BE</t>
   </si>
   <si>
-    <t>首爾</t>
+    <t>首尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E5%A3%A4</t>
@@ -365,7 +362,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E7%81%A3</t>
   </si>
   <si>
-    <t>波斯灣</t>
+    <t>波斯湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E6%B2%B3</t>
@@ -377,31 +374,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A9%E4%BC%8A%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>兩伊戰爭</t>
+    <t>两伊战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A3%8F%E6%B5%B7</t>
   </si>
   <si>
-    <t>裏海</t>
+    <t>里海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E5%BA%AB%E6%9B%BC</t>
   </si>
   <si>
-    <t>土庫曼</t>
+    <t>土库曼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%A1%9E%E6%8B%9C%E7%84%B6</t>
   </si>
   <si>
-    <t>亞塞拜然</t>
+    <t>亚塞拜然</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%96%A9%E5%85%8B</t>
   </si>
   <si>
-    <t>哈薩克</t>
+    <t>哈萨克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6</t>
@@ -413,7 +410,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E8%96%A9%E8%B5%B0%E5%BB%8A</t>
   </si>
   <si>
-    <t>加薩走廊</t>
+    <t>加萨走廊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97</t>
@@ -425,25 +422,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E9%A6%AC%E9%87%8C</t>
   </si>
   <si>
-    <t>索馬里</t>
+    <t>索马里</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>波士尼亞</t>
+    <t>波士尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%85%A7%E5%93%A5%E7%BE%85</t>
   </si>
   <si>
-    <t>蒙特內哥羅</t>
+    <t>蒙特内哥罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E6%97%A6</t>
   </si>
   <si>
-    <t>約旦</t>
+    <t>约旦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%9B%E7%90%89</t>
@@ -455,31 +452,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
+    <t>法国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華人民共和國</t>
+    <t>中华人民共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1</t>
@@ -497,7 +494,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E6%96%87%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>斯洛文尼亞</t>
+    <t>斯洛文尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%93%A5</t>
@@ -521,37 +518,37 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E7%88%BE%E7%93%A6%E5%A4%9A</t>
   </si>
   <si>
-    <t>薩爾瓦多</t>
+    <t>萨尔瓦多</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%AD%AF</t>
   </si>
   <si>
-    <t>秘魯</t>
+    <t>秘鲁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93</t>
   </si>
   <si>
-    <t>菲律賓</t>
+    <t>菲律宾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B8%83%E4%BA%9E%E7%B4%90%E5%B9%BE%E5%85%A7%E4%BA%9E</t>
   </si>
   <si>
-    <t>巴布亞紐幾內亞</t>
+    <t>巴布亚纽几内亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5</t>
   </si>
   <si>
-    <t>丹麥</t>
+    <t>丹麦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%99%B5%E8%98%AD</t>
   </si>
   <si>
-    <t>格陵蘭</t>
+    <t>格陵兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%B5%B7%E9%81%93</t>
@@ -569,25 +566,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E5%9C%8B</t>
   </si>
   <si>
-    <t>韓國</t>
+    <t>韩国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8D%E9%A6%AC%E6%B5%B7%E5%B3%BD</t>
   </si>
   <si>
-    <t>對馬海峽</t>
+    <t>对马海峡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%B9%BF%E5%85%92%E5%B3%B6%E7%B8%A3</t>
   </si>
   <si>
-    <t>鹿兒島縣</t>
+    <t>鹿儿岛县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9A%85%E6%B5%B7%E5%B3%BD</t>
   </si>
   <si>
-    <t>大隅海峽</t>
+    <t>大隅海峡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E6%B5%B7</t>
@@ -599,37 +596,37 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%90%B4%E6%B5%B7</t>
   </si>
   <si>
-    <t>愛琴海</t>
+    <t>爱琴海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%B3%B6</t>
   </si>
   <si>
-    <t>曼島</t>
+    <t>曼岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%85%8B%E8%98%AD%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>福克蘭群島</t>
+    <t>福克兰群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>維京群島</t>
+    <t>维京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%85%A7%E7%91%9E%E6%8B%89</t>
   </si>
   <si>
-    <t>委內瑞拉</t>
+    <t>委内瑞拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%8A%A0%E6%8B%89</t>
@@ -641,25 +638,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E4%B8%B9</t>
   </si>
   <si>
-    <t>蘇丹</t>
+    <t>苏丹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%83%8F%E5%9C%B0%E9%98%BF%E6%8B%89%E4%BC%AF</t>
   </si>
   <si>
-    <t>沙烏地阿拉伯</t>
+    <t>沙乌地阿拉伯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%98%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>甘比亞</t>
+    <t>甘比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B7%AC%E7%94%B8</t>
   </si>
   <si>
-    <t>緬甸</t>
+    <t>缅甸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5</t>
@@ -671,19 +668,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E8%A5%BF%E8%98%AD</t>
   </si>
   <si>
-    <t>紐西蘭</t>
+    <t>纽西兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E6%B0%91%E4%B8%BB%E4%B8%BB%E7%BE%A9%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>朝鮮民主主義人民共和國</t>
+    <t>朝鲜民主主义人民共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E5%B1%AC%E7%B6%93%E6%BF%9F%E5%8D%80</t>
   </si>
   <si>
-    <t>專屬經濟區</t>
+    <t>专属经济区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%B4%8B</t>
@@ -701,7 +698,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -713,7 +710,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -1548,7 +1545,7 @@
         <v>31</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="G17" t="n">
         <v>2</v>
@@ -1574,10 +1571,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" t="s">
         <v>33</v>
-      </c>
-      <c r="F18" t="s">
-        <v>34</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1603,10 +1600,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" t="s">
         <v>35</v>
-      </c>
-      <c r="F19" t="s">
-        <v>36</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -1632,10 +1629,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" t="s">
         <v>37</v>
-      </c>
-      <c r="F20" t="s">
-        <v>38</v>
       </c>
       <c r="G20" t="n">
         <v>2</v>
@@ -1661,10 +1658,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" t="s">
         <v>39</v>
-      </c>
-      <c r="F21" t="s">
-        <v>40</v>
       </c>
       <c r="G21" t="n">
         <v>2</v>
@@ -1690,10 +1687,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" t="s">
         <v>41</v>
-      </c>
-      <c r="F22" t="s">
-        <v>42</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1719,10 +1716,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" t="s">
         <v>43</v>
-      </c>
-      <c r="F23" t="s">
-        <v>44</v>
       </c>
       <c r="G23" t="n">
         <v>5</v>
@@ -1748,10 +1745,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
         <v>45</v>
-      </c>
-      <c r="F24" t="s">
-        <v>46</v>
       </c>
       <c r="G24" t="n">
         <v>3</v>
@@ -1777,10 +1774,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" t="s">
         <v>47</v>
-      </c>
-      <c r="F25" t="s">
-        <v>48</v>
       </c>
       <c r="G25" t="n">
         <v>2</v>
@@ -1806,10 +1803,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" t="s">
         <v>49</v>
-      </c>
-      <c r="F26" t="s">
-        <v>50</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1835,10 +1832,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" t="s">
         <v>51</v>
-      </c>
-      <c r="F27" t="s">
-        <v>52</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1864,10 +1861,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" t="s">
         <v>53</v>
-      </c>
-      <c r="F28" t="s">
-        <v>54</v>
       </c>
       <c r="G28" t="n">
         <v>2</v>
@@ -1893,10 +1890,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" t="s">
         <v>55</v>
-      </c>
-      <c r="F29" t="s">
-        <v>56</v>
       </c>
       <c r="G29" t="n">
         <v>3</v>
@@ -1922,10 +1919,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" t="s">
         <v>57</v>
-      </c>
-      <c r="F30" t="s">
-        <v>58</v>
       </c>
       <c r="G30" t="n">
         <v>4</v>
@@ -1951,10 +1948,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" t="s">
         <v>59</v>
-      </c>
-      <c r="F31" t="s">
-        <v>60</v>
       </c>
       <c r="G31" t="n">
         <v>2</v>
@@ -1980,10 +1977,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" t="s">
         <v>61</v>
-      </c>
-      <c r="F32" t="s">
-        <v>62</v>
       </c>
       <c r="G32" t="n">
         <v>3</v>
@@ -2009,10 +2006,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" t="s">
         <v>63</v>
-      </c>
-      <c r="F33" t="s">
-        <v>64</v>
       </c>
       <c r="G33" t="n">
         <v>4</v>
@@ -2038,10 +2035,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" t="s">
         <v>65</v>
-      </c>
-      <c r="F34" t="s">
-        <v>66</v>
       </c>
       <c r="G34" t="n">
         <v>6</v>
@@ -2067,10 +2064,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
         <v>67</v>
-      </c>
-      <c r="F35" t="s">
-        <v>68</v>
       </c>
       <c r="G35" t="n">
         <v>5</v>
@@ -2096,10 +2093,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" t="s">
         <v>69</v>
-      </c>
-      <c r="F36" t="s">
-        <v>70</v>
       </c>
       <c r="G36" t="n">
         <v>2</v>
@@ -2125,10 +2122,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" t="s">
         <v>71</v>
-      </c>
-      <c r="F37" t="s">
-        <v>72</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2154,10 +2151,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" t="s">
         <v>73</v>
-      </c>
-      <c r="F38" t="s">
-        <v>74</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2183,10 +2180,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" t="s">
         <v>75</v>
-      </c>
-      <c r="F39" t="s">
-        <v>76</v>
       </c>
       <c r="G39" t="n">
         <v>2</v>
@@ -2212,10 +2209,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40" t="s">
         <v>77</v>
-      </c>
-      <c r="F40" t="s">
-        <v>78</v>
       </c>
       <c r="G40" t="n">
         <v>2</v>
@@ -2241,10 +2238,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>78</v>
+      </c>
+      <c r="F41" t="s">
         <v>79</v>
-      </c>
-      <c r="F41" t="s">
-        <v>80</v>
       </c>
       <c r="G41" t="n">
         <v>2</v>
@@ -2270,10 +2267,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42" t="s">
         <v>81</v>
-      </c>
-      <c r="F42" t="s">
-        <v>82</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2299,10 +2296,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" t="s">
         <v>83</v>
-      </c>
-      <c r="F43" t="s">
-        <v>84</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2328,10 +2325,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>84</v>
+      </c>
+      <c r="F44" t="s">
         <v>85</v>
-      </c>
-      <c r="F44" t="s">
-        <v>86</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2357,10 +2354,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>86</v>
+      </c>
+      <c r="F45" t="s">
         <v>87</v>
-      </c>
-      <c r="F45" t="s">
-        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2386,10 +2383,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" t="s">
         <v>89</v>
-      </c>
-      <c r="F46" t="s">
-        <v>90</v>
       </c>
       <c r="G46" t="n">
         <v>2</v>
@@ -2415,10 +2412,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" t="s">
         <v>91</v>
-      </c>
-      <c r="F47" t="s">
-        <v>92</v>
       </c>
       <c r="G47" t="n">
         <v>3</v>
@@ -2444,10 +2441,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" t="s">
         <v>93</v>
-      </c>
-      <c r="F48" t="s">
-        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2473,10 +2470,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49" t="s">
         <v>95</v>
-      </c>
-      <c r="F49" t="s">
-        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2502,10 +2499,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" t="s">
         <v>97</v>
-      </c>
-      <c r="F50" t="s">
-        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>2</v>
@@ -2531,10 +2528,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" t="s">
         <v>99</v>
-      </c>
-      <c r="F51" t="s">
-        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>2</v>
@@ -2560,10 +2557,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>100</v>
+      </c>
+      <c r="F52" t="s">
         <v>101</v>
-      </c>
-      <c r="F52" t="s">
-        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>2</v>
@@ -2589,10 +2586,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53" t="s">
         <v>103</v>
-      </c>
-      <c r="F53" t="s">
-        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>4</v>
@@ -2618,10 +2615,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>104</v>
+      </c>
+      <c r="F54" t="s">
         <v>105</v>
-      </c>
-      <c r="F54" t="s">
-        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>2</v>
@@ -2647,10 +2644,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>106</v>
+      </c>
+      <c r="F55" t="s">
         <v>107</v>
-      </c>
-      <c r="F55" t="s">
-        <v>108</v>
       </c>
       <c r="G55" t="n">
         <v>2</v>
@@ -2676,10 +2673,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" t="s">
         <v>109</v>
-      </c>
-      <c r="F56" t="s">
-        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>2</v>
@@ -2705,10 +2702,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57" t="s">
         <v>111</v>
-      </c>
-      <c r="F57" t="s">
-        <v>112</v>
       </c>
       <c r="G57" t="n">
         <v>3</v>
@@ -2734,10 +2731,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>112</v>
+      </c>
+      <c r="F58" t="s">
         <v>113</v>
-      </c>
-      <c r="F58" t="s">
-        <v>114</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2763,10 +2760,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>114</v>
+      </c>
+      <c r="F59" t="s">
         <v>115</v>
-      </c>
-      <c r="F59" t="s">
-        <v>116</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2792,10 +2789,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" t="s">
         <v>117</v>
-      </c>
-      <c r="F60" t="s">
-        <v>118</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2821,10 +2818,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>118</v>
+      </c>
+      <c r="F61" t="s">
         <v>119</v>
-      </c>
-      <c r="F61" t="s">
-        <v>120</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2850,10 +2847,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>120</v>
+      </c>
+      <c r="F62" t="s">
         <v>121</v>
-      </c>
-      <c r="F62" t="s">
-        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2879,10 +2876,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>122</v>
+      </c>
+      <c r="F63" t="s">
         <v>123</v>
-      </c>
-      <c r="F63" t="s">
-        <v>124</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2908,10 +2905,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>124</v>
+      </c>
+      <c r="F64" t="s">
         <v>125</v>
-      </c>
-      <c r="F64" t="s">
-        <v>126</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2937,10 +2934,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>126</v>
+      </c>
+      <c r="F65" t="s">
         <v>127</v>
-      </c>
-      <c r="F65" t="s">
-        <v>128</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -2966,10 +2963,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>128</v>
+      </c>
+      <c r="F66" t="s">
         <v>129</v>
-      </c>
-      <c r="F66" t="s">
-        <v>130</v>
       </c>
       <c r="G66" t="n">
         <v>2</v>
@@ -2995,10 +2992,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>130</v>
+      </c>
+      <c r="F67" t="s">
         <v>131</v>
-      </c>
-      <c r="F67" t="s">
-        <v>132</v>
       </c>
       <c r="G67" t="n">
         <v>2</v>
@@ -3024,10 +3021,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>132</v>
+      </c>
+      <c r="F68" t="s">
         <v>133</v>
-      </c>
-      <c r="F68" t="s">
-        <v>134</v>
       </c>
       <c r="G68" t="n">
         <v>2</v>
@@ -3053,10 +3050,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>134</v>
+      </c>
+      <c r="F69" t="s">
         <v>135</v>
-      </c>
-      <c r="F69" t="s">
-        <v>136</v>
       </c>
       <c r="G69" t="n">
         <v>2</v>
@@ -3082,10 +3079,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>136</v>
+      </c>
+      <c r="F70" t="s">
         <v>137</v>
-      </c>
-      <c r="F70" t="s">
-        <v>138</v>
       </c>
       <c r="G70" t="n">
         <v>2</v>
@@ -3111,10 +3108,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>138</v>
+      </c>
+      <c r="F71" t="s">
         <v>139</v>
-      </c>
-      <c r="F71" t="s">
-        <v>140</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3140,10 +3137,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>140</v>
+      </c>
+      <c r="F72" t="s">
         <v>141</v>
-      </c>
-      <c r="F72" t="s">
-        <v>142</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3169,10 +3166,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>142</v>
+      </c>
+      <c r="F73" t="s">
         <v>143</v>
-      </c>
-      <c r="F73" t="s">
-        <v>144</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3198,10 +3195,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>144</v>
+      </c>
+      <c r="F74" t="s">
         <v>145</v>
-      </c>
-      <c r="F74" t="s">
-        <v>146</v>
       </c>
       <c r="G74" t="n">
         <v>7</v>
@@ -3227,10 +3224,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>146</v>
+      </c>
+      <c r="F75" t="s">
         <v>147</v>
-      </c>
-      <c r="F75" t="s">
-        <v>148</v>
       </c>
       <c r="G75" t="n">
         <v>4</v>
@@ -3256,10 +3253,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>148</v>
+      </c>
+      <c r="F76" t="s">
         <v>149</v>
-      </c>
-      <c r="F76" t="s">
-        <v>150</v>
       </c>
       <c r="G76" t="n">
         <v>3</v>
@@ -3285,10 +3282,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>150</v>
+      </c>
+      <c r="F77" t="s">
         <v>151</v>
-      </c>
-      <c r="F77" t="s">
-        <v>152</v>
       </c>
       <c r="G77" t="n">
         <v>2</v>
@@ -3314,10 +3311,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>152</v>
+      </c>
+      <c r="F78" t="s">
         <v>153</v>
-      </c>
-      <c r="F78" t="s">
-        <v>154</v>
       </c>
       <c r="G78" t="n">
         <v>2</v>
@@ -3343,10 +3340,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>154</v>
+      </c>
+      <c r="F79" t="s">
         <v>155</v>
-      </c>
-      <c r="F79" t="s">
-        <v>156</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3372,10 +3369,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>156</v>
+      </c>
+      <c r="F80" t="s">
         <v>157</v>
-      </c>
-      <c r="F80" t="s">
-        <v>158</v>
       </c>
       <c r="G80" t="n">
         <v>5</v>
@@ -3401,10 +3398,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>158</v>
+      </c>
+      <c r="F81" t="s">
         <v>159</v>
-      </c>
-      <c r="F81" t="s">
-        <v>160</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3430,10 +3427,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>160</v>
+      </c>
+      <c r="F82" t="s">
         <v>161</v>
-      </c>
-      <c r="F82" t="s">
-        <v>162</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3459,10 +3456,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>162</v>
+      </c>
+      <c r="F83" t="s">
         <v>163</v>
-      </c>
-      <c r="F83" t="s">
-        <v>164</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3488,10 +3485,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>164</v>
+      </c>
+      <c r="F84" t="s">
         <v>165</v>
-      </c>
-      <c r="F84" t="s">
-        <v>166</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3517,10 +3514,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>166</v>
+      </c>
+      <c r="F85" t="s">
         <v>167</v>
-      </c>
-      <c r="F85" t="s">
-        <v>168</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3546,10 +3543,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>168</v>
+      </c>
+      <c r="F86" t="s">
         <v>169</v>
-      </c>
-      <c r="F86" t="s">
-        <v>170</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3575,10 +3572,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>170</v>
+      </c>
+      <c r="F87" t="s">
         <v>171</v>
-      </c>
-      <c r="F87" t="s">
-        <v>172</v>
       </c>
       <c r="G87" t="n">
         <v>2</v>
@@ -3604,10 +3601,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>172</v>
+      </c>
+      <c r="F88" t="s">
         <v>173</v>
-      </c>
-      <c r="F88" t="s">
-        <v>174</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3633,10 +3630,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>174</v>
+      </c>
+      <c r="F89" t="s">
         <v>175</v>
-      </c>
-      <c r="F89" t="s">
-        <v>176</v>
       </c>
       <c r="G89" t="n">
         <v>2</v>
@@ -3662,10 +3659,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>176</v>
+      </c>
+      <c r="F90" t="s">
         <v>177</v>
-      </c>
-      <c r="F90" t="s">
-        <v>178</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3691,10 +3688,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>178</v>
+      </c>
+      <c r="F91" t="s">
         <v>179</v>
-      </c>
-      <c r="F91" t="s">
-        <v>180</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3720,10 +3717,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>180</v>
+      </c>
+      <c r="F92" t="s">
         <v>181</v>
-      </c>
-      <c r="F92" t="s">
-        <v>182</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3749,10 +3746,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>182</v>
+      </c>
+      <c r="F93" t="s">
         <v>183</v>
-      </c>
-      <c r="F93" t="s">
-        <v>184</v>
       </c>
       <c r="G93" t="n">
         <v>2</v>
@@ -3778,10 +3775,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>184</v>
+      </c>
+      <c r="F94" t="s">
         <v>185</v>
-      </c>
-      <c r="F94" t="s">
-        <v>186</v>
       </c>
       <c r="G94" t="n">
         <v>2</v>
@@ -3807,10 +3804,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>186</v>
+      </c>
+      <c r="F95" t="s">
         <v>187</v>
-      </c>
-      <c r="F95" t="s">
-        <v>188</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3836,10 +3833,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>188</v>
+      </c>
+      <c r="F96" t="s">
         <v>189</v>
-      </c>
-      <c r="F96" t="s">
-        <v>190</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -3865,10 +3862,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>190</v>
+      </c>
+      <c r="F97" t="s">
         <v>191</v>
-      </c>
-      <c r="F97" t="s">
-        <v>192</v>
       </c>
       <c r="G97" t="n">
         <v>2</v>
@@ -3894,10 +3891,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>192</v>
+      </c>
+      <c r="F98" t="s">
         <v>193</v>
-      </c>
-      <c r="F98" t="s">
-        <v>194</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -3923,10 +3920,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>194</v>
+      </c>
+      <c r="F99" t="s">
         <v>195</v>
-      </c>
-      <c r="F99" t="s">
-        <v>196</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -3952,10 +3949,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>196</v>
+      </c>
+      <c r="F100" t="s">
         <v>197</v>
-      </c>
-      <c r="F100" t="s">
-        <v>198</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -3981,10 +3978,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>198</v>
+      </c>
+      <c r="F101" t="s">
         <v>199</v>
-      </c>
-      <c r="F101" t="s">
-        <v>200</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4010,10 +4007,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>200</v>
+      </c>
+      <c r="F102" t="s">
         <v>201</v>
-      </c>
-      <c r="F102" t="s">
-        <v>202</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4039,10 +4036,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>202</v>
+      </c>
+      <c r="F103" t="s">
         <v>203</v>
-      </c>
-      <c r="F103" t="s">
-        <v>204</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4068,10 +4065,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>204</v>
+      </c>
+      <c r="F104" t="s">
         <v>205</v>
-      </c>
-      <c r="F104" t="s">
-        <v>206</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4097,10 +4094,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>206</v>
+      </c>
+      <c r="F105" t="s">
         <v>207</v>
-      </c>
-      <c r="F105" t="s">
-        <v>208</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4126,10 +4123,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>208</v>
+      </c>
+      <c r="F106" t="s">
         <v>209</v>
-      </c>
-      <c r="F106" t="s">
-        <v>210</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4155,10 +4152,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>210</v>
+      </c>
+      <c r="F107" t="s">
         <v>211</v>
-      </c>
-      <c r="F107" t="s">
-        <v>212</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4184,10 +4181,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>212</v>
+      </c>
+      <c r="F108" t="s">
         <v>213</v>
-      </c>
-      <c r="F108" t="s">
-        <v>214</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4213,10 +4210,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>214</v>
+      </c>
+      <c r="F109" t="s">
         <v>215</v>
-      </c>
-      <c r="F109" t="s">
-        <v>216</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4242,10 +4239,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>216</v>
+      </c>
+      <c r="F110" t="s">
         <v>217</v>
-      </c>
-      <c r="F110" t="s">
-        <v>218</v>
       </c>
       <c r="G110" t="n">
         <v>2</v>
@@ -4271,10 +4268,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>218</v>
+      </c>
+      <c r="F111" t="s">
         <v>219</v>
-      </c>
-      <c r="F111" t="s">
-        <v>220</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4300,10 +4297,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>220</v>
+      </c>
+      <c r="F112" t="s">
         <v>221</v>
-      </c>
-      <c r="F112" t="s">
-        <v>222</v>
       </c>
       <c r="G112" t="n">
         <v>3</v>
@@ -4329,10 +4326,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>222</v>
+      </c>
+      <c r="F113" t="s">
         <v>223</v>
-      </c>
-      <c r="F113" t="s">
-        <v>224</v>
       </c>
       <c r="G113" t="n">
         <v>12</v>
@@ -4358,10 +4355,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>224</v>
+      </c>
+      <c r="F114" t="s">
         <v>225</v>
-      </c>
-      <c r="F114" t="s">
-        <v>226</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4387,10 +4384,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>226</v>
+      </c>
+      <c r="F115" t="s">
         <v>227</v>
-      </c>
-      <c r="F115" t="s">
-        <v>228</v>
       </c>
       <c r="G115" t="n">
         <v>3</v>
@@ -4416,10 +4413,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>228</v>
+      </c>
+      <c r="F116" t="s">
         <v>229</v>
-      </c>
-      <c r="F116" t="s">
-        <v>230</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4445,10 +4442,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>230</v>
+      </c>
+      <c r="F117" t="s">
         <v>231</v>
-      </c>
-      <c r="F117" t="s">
-        <v>232</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
